--- a/Complete-spreadsheets/TASK/Fp1-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/Fp1-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B6C2E7-06F9-474E-A596-0E0C711B45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4931C0-D827-408D-9839-02C89DBDC27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,23 +499,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>515.06701428511906</v>
-      </c>
-      <c r="C2" s="3">
-        <v>85.913943508041044</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4.8440673854412823</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.0923737932912099</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.6454434861716809</v>
+      <c r="B2" s="4">
+        <v>1015.444030923359</v>
+      </c>
+      <c r="C2" s="4">
+        <v>127.117264310742</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12.110835852860109</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.8728691872342136</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.0227134408120788</v>
       </c>
       <c r="G2">
-        <v>612.5628424580641</v>
+        <v>1164.567713715008</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -537,23 +537,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>58.426053720720112</v>
-      </c>
-      <c r="C3" s="3">
-        <v>15.8892468291016</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.6824609993926174</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.0021042196845817</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.4065556214765476</v>
+      <c r="B3" s="4">
+        <v>2053.1305719285201</v>
+      </c>
+      <c r="C3" s="4">
+        <v>142.66939033961171</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12.416090447266379</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.7736605646580799</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.2926632281287578</v>
       </c>
       <c r="G3">
-        <v>88.406421390375456</v>
+        <v>2218.2823765081848</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -576,22 +576,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>1015.444030923359</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C4" s="4">
-        <v>127.117264310742</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D4" s="4">
-        <v>12.110835852860109</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E4" s="4">
-        <v>4.8728691872342136</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F4" s="4">
-        <v>5.0227134408120788</v>
+        <v>5.6760338349362813</v>
       </c>
       <c r="G4">
-        <v>1164.567713715008</v>
+        <v>316.91431462138928</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -614,22 +614,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>2053.1305719285201</v>
+        <v>158.0830513526779</v>
       </c>
       <c r="C5" s="4">
-        <v>142.66939033961171</v>
+        <v>140.2928759072625</v>
       </c>
       <c r="D5" s="4">
-        <v>12.416090447266379</v>
+        <v>7.0695412254694441</v>
       </c>
       <c r="E5" s="4">
-        <v>4.7736605646580799</v>
+        <v>5.7928123010432486</v>
       </c>
       <c r="F5" s="4">
-        <v>5.2926632281287578</v>
+        <v>5.6760338349362813</v>
       </c>
       <c r="G5">
-        <v>2218.2823765081848</v>
+        <v>316.91431462138928</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -918,22 +918,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>158.0830513526779</v>
+        <v>422.56413861128112</v>
       </c>
       <c r="C13" s="4">
-        <v>140.2928759072625</v>
+        <v>125.2816511410543</v>
       </c>
       <c r="D13" s="4">
-        <v>7.0695412254694441</v>
+        <v>8.5826459359408158</v>
       </c>
       <c r="E13" s="4">
-        <v>5.7928123010432486</v>
+        <v>7.0326137607312962</v>
       </c>
       <c r="F13" s="4">
-        <v>5.6760338349362813</v>
+        <v>5.8572861675786783</v>
       </c>
       <c r="G13">
-        <v>316.91431462138928</v>
+        <v>569.31833561658618</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -956,22 +956,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>158.0830513526779</v>
+        <v>328.9084721030265</v>
       </c>
       <c r="C14" s="4">
-        <v>140.2928759072625</v>
+        <v>104.2916437416557</v>
       </c>
       <c r="D14" s="4">
-        <v>7.0695412254694441</v>
+        <v>14.98973665707801</v>
       </c>
       <c r="E14" s="4">
-        <v>5.7928123010432486</v>
+        <v>7.8322523107390554</v>
       </c>
       <c r="F14" s="4">
-        <v>5.6760338349362813</v>
+        <v>5.9602721294094616</v>
       </c>
       <c r="G14">
-        <v>316.91431462138928</v>
+        <v>461.98237694190863</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -993,23 +993,23 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>631.55466742842975</v>
-      </c>
-      <c r="C15" s="3">
-        <v>187.05565897017431</v>
-      </c>
-      <c r="D15" s="3">
-        <v>26.98967084467197</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11.74872391524271</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5.7238606502441636</v>
+      <c r="B15" s="4">
+        <v>186.806218002669</v>
+      </c>
+      <c r="C15" s="4">
+        <v>103.1996996488534</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5.3180560696121004</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.7906331228855636</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.2085102087817967</v>
       </c>
       <c r="G15">
-        <v>863.07258180876272</v>
+        <v>307.32311705280188</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1031,23 +1031,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>1652.3492510551059</v>
-      </c>
-      <c r="C16" s="3">
-        <v>237.47663050018721</v>
-      </c>
-      <c r="D16" s="3">
-        <v>18.27206458244947</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6.0493879221373819</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5.7620686274957489</v>
+      <c r="B16" s="4">
+        <v>493.89074773502978</v>
+      </c>
+      <c r="C16" s="4">
+        <v>146.91132817797839</v>
+      </c>
+      <c r="D16" s="4">
+        <v>19.56205569134292</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.5425636379647312</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.342631084041038</v>
       </c>
       <c r="G16">
-        <v>1919.9094026873749</v>
+        <v>677.24932632635682</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>26</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1069,23 +1069,23 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
-        <v>271.18622475515838</v>
-      </c>
-      <c r="C17" s="3">
-        <v>70.822291292401076</v>
-      </c>
-      <c r="D17" s="3">
-        <v>11.40858849343107</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7.3318808776159088</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5.8187051341433156</v>
+      <c r="B17" s="4">
+        <v>409.93810075165948</v>
+      </c>
+      <c r="C17" s="4">
+        <v>176.85805077975471</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.6704161825997588</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.414718842808985</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10.466592740564799</v>
       </c>
       <c r="G17">
-        <v>366.56769055274981</v>
+        <v>611.34787929738786</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1111,22 +1111,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>422.56413861128112</v>
+        <v>404.2238881663871</v>
       </c>
       <c r="C18" s="4">
-        <v>125.2816511410543</v>
+        <v>86.572881192746053</v>
       </c>
       <c r="D18" s="4">
-        <v>8.5826459359408158</v>
+        <v>22.573280728526569</v>
       </c>
       <c r="E18" s="4">
-        <v>7.0326137607312962</v>
+        <v>9.6333603539308683</v>
       </c>
       <c r="F18" s="4">
-        <v>5.8572861675786783</v>
+        <v>10.915243634425741</v>
       </c>
       <c r="G18">
-        <v>569.31833561658618</v>
+        <v>533.91865407601631</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1151,23 +1151,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>1350.46807470777</v>
-      </c>
-      <c r="C19" s="3">
-        <v>344.86404457020831</v>
-      </c>
-      <c r="D19" s="3">
-        <v>31.66620500138427</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6.367598185493148</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5.9353616796909607</v>
+      <c r="B19" s="4">
+        <v>675.08494190005399</v>
+      </c>
+      <c r="C19" s="4">
+        <v>436.2424632714754</v>
+      </c>
+      <c r="D19" s="4">
+        <v>14.450403384478159</v>
+      </c>
+      <c r="E19" s="4">
+        <v>17.100801798023699</v>
+      </c>
+      <c r="F19" s="4">
+        <v>14.39304272125929</v>
       </c>
       <c r="G19">
-        <v>1739.301284144547</v>
+        <v>1157.27165307529</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
@@ -1193,22 +1193,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>328.9084721030265</v>
+        <v>1129.3362464507229</v>
       </c>
       <c r="C20" s="4">
-        <v>104.2916437416557</v>
+        <v>226.72669515284829</v>
       </c>
       <c r="D20" s="4">
-        <v>14.98973665707801</v>
+        <v>33.45796845650149</v>
       </c>
       <c r="E20" s="4">
-        <v>7.8322523107390554</v>
+        <v>12.87144210824874</v>
       </c>
       <c r="F20" s="4">
-        <v>5.9602721294094616</v>
+        <v>18.259071855864971</v>
       </c>
       <c r="G20">
-        <v>461.98237694190863</v>
+        <v>1420.6514240241861</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1233,23 +1233,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>175.781233405943</v>
-      </c>
-      <c r="C21" s="3">
-        <v>40.158964634924153</v>
-      </c>
-      <c r="D21" s="3">
-        <v>22.308672294144561</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10.76209193863901</v>
-      </c>
-      <c r="F21" s="3">
-        <v>5.9910715502380629</v>
+      <c r="B21" s="4">
+        <v>320.56798426591018</v>
+      </c>
+      <c r="C21" s="4">
+        <v>135.19543134828299</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10.53757897575395</v>
+      </c>
+      <c r="E21" s="4">
+        <v>11.893860774628919</v>
+      </c>
+      <c r="F21" s="4">
+        <v>30.052347776706561</v>
       </c>
       <c r="G21">
-        <v>255.00203382388881</v>
+        <v>508.24720314128268</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
@@ -1272,22 +1272,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>186.806218002669</v>
+        <v>95.62299966160478</v>
       </c>
       <c r="C22" s="4">
-        <v>103.1996996488534</v>
+        <v>87.31383103725139</v>
       </c>
       <c r="D22" s="4">
-        <v>5.3180560696121004</v>
+        <v>8.4369804546763589</v>
       </c>
       <c r="E22" s="4">
-        <v>5.7906331228855636</v>
+        <v>22.789455019734529</v>
       </c>
       <c r="F22" s="4">
-        <v>6.2085102087817967</v>
+        <v>54.926623926138788</v>
       </c>
       <c r="G22">
-        <v>307.32311705280188</v>
+        <v>269.08989009940581</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1309,23 +1309,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>593.20998399910127</v>
-      </c>
-      <c r="C23" s="3">
-        <v>136.277733741167</v>
-      </c>
-      <c r="D23" s="3">
-        <v>22.619172897935972</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8.2210425439719437</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6.7939871162561438</v>
+      <c r="B23" s="4">
+        <v>8634.4334241478064</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1559.6966313291471</v>
+      </c>
+      <c r="D23" s="4">
+        <v>595.17730428795926</v>
+      </c>
+      <c r="E23" s="4">
+        <v>387.90335090979988</v>
+      </c>
+      <c r="F23" s="4">
+        <v>288.74623970881782</v>
       </c>
       <c r="G23">
-        <v>767.12192029843231</v>
+        <v>11465.956950383519</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
@@ -1348,22 +1348,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>236.01823248765089</v>
+        <v>515.06701428511906</v>
       </c>
       <c r="C24" s="3">
-        <v>62.620732076036347</v>
+        <v>85.913943508041044</v>
       </c>
       <c r="D24" s="3">
-        <v>12.403812134817001</v>
+        <v>4.8440673854412823</v>
       </c>
       <c r="E24" s="3">
-        <v>8.0935910702619651</v>
+        <v>3.0923737932912099</v>
       </c>
       <c r="F24" s="3">
-        <v>6.8376966029906354</v>
+        <v>3.6454434861716809</v>
       </c>
       <c r="G24">
-        <v>325.97406437175681</v>
+        <v>612.5628424580641</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1386,22 +1386,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>386.35177477371423</v>
+        <v>58.426053720720112</v>
       </c>
       <c r="C25" s="3">
-        <v>29.05559274562205</v>
+        <v>15.8892468291016</v>
       </c>
       <c r="D25" s="3">
-        <v>5.3658871312446017</v>
+        <v>4.6824609993926174</v>
       </c>
       <c r="E25" s="3">
-        <v>3.8406923423824151</v>
+        <v>5.0021042196845817</v>
       </c>
       <c r="F25" s="3">
-        <v>7.1396431976428314</v>
+        <v>4.4065556214765476</v>
       </c>
       <c r="G25">
-        <v>431.75359019060608</v>
+        <v>88.406421390375456</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1424,22 +1424,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>219.61303233731019</v>
+        <v>631.55466742842975</v>
       </c>
       <c r="C26" s="3">
-        <v>23.858593790190159</v>
+        <v>187.05565897017431</v>
       </c>
       <c r="D26" s="3">
-        <v>10.49234138285861</v>
+        <v>26.98967084467197</v>
       </c>
       <c r="E26" s="3">
-        <v>8.0472295025197322</v>
+        <v>11.74872391524271</v>
       </c>
       <c r="F26" s="3">
-        <v>8.1486817682676982</v>
+        <v>5.7238606502441636</v>
       </c>
       <c r="G26">
-        <v>270.15987878114629</v>
+        <v>863.07258180876272</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1462,22 +1462,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>388.66745586075263</v>
+        <v>1652.3492510551059</v>
       </c>
       <c r="C27" s="3">
-        <v>60.855082362266202</v>
+        <v>237.47663050018721</v>
       </c>
       <c r="D27" s="3">
-        <v>9.6229349145585914</v>
+        <v>18.27206458244947</v>
       </c>
       <c r="E27" s="3">
-        <v>6.3693434016881314</v>
+        <v>6.0493879221373819</v>
       </c>
       <c r="F27" s="3">
-        <v>8.315879234178654</v>
+        <v>5.7620686274957489</v>
       </c>
       <c r="G27">
-        <v>473.83069577344418</v>
+        <v>1919.9094026873749</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1499,23 +1499,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>493.89074773502978</v>
-      </c>
-      <c r="C28" s="4">
-        <v>146.91132817797839</v>
-      </c>
-      <c r="D28" s="4">
-        <v>19.56205569134292</v>
-      </c>
-      <c r="E28" s="4">
-        <v>8.5425636379647312</v>
-      </c>
-      <c r="F28" s="4">
-        <v>8.342631084041038</v>
+      <c r="B28" s="3">
+        <v>271.18622475515838</v>
+      </c>
+      <c r="C28" s="3">
+        <v>70.822291292401076</v>
+      </c>
+      <c r="D28" s="3">
+        <v>11.40858849343107</v>
+      </c>
+      <c r="E28" s="3">
+        <v>7.3318808776159088</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5.8187051341433156</v>
       </c>
       <c r="G28">
-        <v>677.24932632635682</v>
+        <v>366.56769055274981</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>15</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1538,22 +1538,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>760.37163596577739</v>
+        <v>1350.46807470777</v>
       </c>
       <c r="C29" s="3">
-        <v>213.2986211860989</v>
+        <v>344.86404457020831</v>
       </c>
       <c r="D29" s="3">
-        <v>24.714864375987169</v>
+        <v>31.66620500138427</v>
       </c>
       <c r="E29" s="3">
-        <v>9.6742940154927499</v>
+        <v>6.367598185493148</v>
       </c>
       <c r="F29" s="3">
-        <v>9.9368900807650213</v>
+        <v>5.9353616796909607</v>
       </c>
       <c r="G29">
-        <v>1017.996305624121</v>
+        <v>1739.301284144547</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1576,22 +1576,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>1840.9622384503621</v>
+        <v>175.781233405943</v>
       </c>
       <c r="C30" s="3">
-        <v>674.13191403666963</v>
+        <v>40.158964634924153</v>
       </c>
       <c r="D30" s="3">
-        <v>128.01925454530931</v>
+        <v>22.308672294144561</v>
       </c>
       <c r="E30" s="3">
-        <v>22.067502343091149</v>
+        <v>10.76209193863901</v>
       </c>
       <c r="F30" s="3">
-        <v>10.31308107823344</v>
+        <v>5.9910715502380629</v>
       </c>
       <c r="G30">
-        <v>2675.4939904536659</v>
+        <v>255.00203382388881</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1613,23 +1613,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>409.93810075165948</v>
-      </c>
-      <c r="C31" s="4">
-        <v>176.85805077975471</v>
-      </c>
-      <c r="D31" s="4">
-        <v>6.6704161825997588</v>
-      </c>
-      <c r="E31" s="4">
-        <v>7.414718842808985</v>
-      </c>
-      <c r="F31" s="4">
-        <v>10.466592740564799</v>
+      <c r="B31" s="3">
+        <v>593.20998399910127</v>
+      </c>
+      <c r="C31" s="3">
+        <v>136.277733741167</v>
+      </c>
+      <c r="D31" s="3">
+        <v>22.619172897935972</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8.2210425439719437</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6.7939871162561438</v>
       </c>
       <c r="G31">
-        <v>611.34787929738786</v>
+        <v>767.12192029843231</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1638,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1651,23 +1651,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>404.2238881663871</v>
-      </c>
-      <c r="C32" s="4">
-        <v>86.572881192746053</v>
-      </c>
-      <c r="D32" s="4">
-        <v>22.573280728526569</v>
-      </c>
-      <c r="E32" s="4">
-        <v>9.6333603539308683</v>
-      </c>
-      <c r="F32" s="4">
-        <v>10.915243634425741</v>
+      <c r="B32" s="3">
+        <v>236.01823248765089</v>
+      </c>
+      <c r="C32" s="3">
+        <v>62.620732076036347</v>
+      </c>
+      <c r="D32" s="3">
+        <v>12.403812134817001</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8.0935910702619651</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.8376966029906354</v>
       </c>
       <c r="G32">
-        <v>533.91865407601631</v>
+        <v>325.97406437175681</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>18</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1690,22 +1690,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>2237.3831392638399</v>
+        <v>386.35177477371423</v>
       </c>
       <c r="C33" s="3">
-        <v>367.51325166236188</v>
+        <v>29.05559274562205</v>
       </c>
       <c r="D33" s="3">
-        <v>30.655152535681381</v>
+        <v>5.3658871312446017</v>
       </c>
       <c r="E33" s="3">
-        <v>13.816940908205369</v>
+        <v>3.8406923423824151</v>
       </c>
       <c r="F33" s="3">
-        <v>13.2172207735775</v>
+        <v>7.1396431976428314</v>
       </c>
       <c r="G33">
-        <v>2662.585705143666</v>
+        <v>431.75359019060608</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1727,23 +1727,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>675.08494190005399</v>
-      </c>
-      <c r="C34" s="4">
-        <v>436.2424632714754</v>
-      </c>
-      <c r="D34" s="4">
-        <v>14.450403384478159</v>
-      </c>
-      <c r="E34" s="4">
-        <v>17.100801798023699</v>
-      </c>
-      <c r="F34" s="4">
-        <v>14.39304272125929</v>
+      <c r="B34" s="3">
+        <v>219.61303233731019</v>
+      </c>
+      <c r="C34" s="3">
+        <v>23.858593790190159</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10.49234138285861</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8.0472295025197322</v>
+      </c>
+      <c r="F34" s="3">
+        <v>8.1486817682676982</v>
       </c>
       <c r="G34">
-        <v>1157.27165307529</v>
+        <v>270.15987878114629</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
@@ -1766,22 +1766,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>2694.177660206391</v>
+        <v>388.66745586075263</v>
       </c>
       <c r="C35" s="3">
-        <v>559.34206444019605</v>
+        <v>60.855082362266202</v>
       </c>
       <c r="D35" s="3">
-        <v>93.378351106547967</v>
+        <v>9.6229349145585914</v>
       </c>
       <c r="E35" s="3">
-        <v>31.52514178210162</v>
+        <v>6.3693434016881314</v>
       </c>
       <c r="F35" s="3">
-        <v>15.31216325251463</v>
+        <v>8.315879234178654</v>
       </c>
       <c r="G35">
-        <v>3393.7353807877498</v>
+        <v>473.83069577344418</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1804,22 +1804,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>1370.1817426209591</v>
+        <v>760.37163596577739</v>
       </c>
       <c r="C36" s="3">
-        <v>218.05916636377501</v>
+        <v>213.2986211860989</v>
       </c>
       <c r="D36" s="3">
-        <v>29.201195969286822</v>
+        <v>24.714864375987169</v>
       </c>
       <c r="E36" s="3">
-        <v>14.703249658979191</v>
+        <v>9.6742940154927499</v>
       </c>
       <c r="F36" s="3">
-        <v>15.343224127233579</v>
+        <v>9.9368900807650213</v>
       </c>
       <c r="G36">
-        <v>1647.4885787402341</v>
+        <v>1017.996305624121</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1842,22 +1842,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>1044.1766026471571</v>
+        <v>1840.9622384503621</v>
       </c>
       <c r="C37" s="3">
-        <v>226.44958208961879</v>
+        <v>674.13191403666963</v>
       </c>
       <c r="D37" s="3">
-        <v>25.172939745556189</v>
+        <v>128.01925454530931</v>
       </c>
       <c r="E37" s="3">
-        <v>15.55145941404847</v>
+        <v>22.067502343091149</v>
       </c>
       <c r="F37" s="3">
-        <v>16.613789895773191</v>
+        <v>10.31308107823344</v>
       </c>
       <c r="G37">
-        <v>1327.964373792154</v>
+        <v>2675.4939904536659</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1879,23 +1879,23 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
-        <v>1129.3362464507229</v>
-      </c>
-      <c r="C38" s="4">
-        <v>226.72669515284829</v>
-      </c>
-      <c r="D38" s="4">
-        <v>33.45796845650149</v>
-      </c>
-      <c r="E38" s="4">
-        <v>12.87144210824874</v>
-      </c>
-      <c r="F38" s="4">
-        <v>18.259071855864971</v>
+      <c r="B38" s="3">
+        <v>2237.3831392638399</v>
+      </c>
+      <c r="C38" s="3">
+        <v>367.51325166236188</v>
+      </c>
+      <c r="D38" s="3">
+        <v>30.655152535681381</v>
+      </c>
+      <c r="E38" s="3">
+        <v>13.816940908205369</v>
+      </c>
+      <c r="F38" s="3">
+        <v>13.2172207735775</v>
       </c>
       <c r="G38">
-        <v>1420.6514240241861</v>
+        <v>2662.585705143666</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>19</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1918,22 +1918,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>1520.9175960978489</v>
+        <v>2694.177660206391</v>
       </c>
       <c r="C39" s="3">
-        <v>272.8235838463475</v>
+        <v>559.34206444019605</v>
       </c>
       <c r="D39" s="3">
-        <v>63.305818741960891</v>
+        <v>93.378351106547967</v>
       </c>
       <c r="E39" s="3">
-        <v>22.729075444948322</v>
+        <v>31.52514178210162</v>
       </c>
       <c r="F39" s="3">
-        <v>18.744673867766771</v>
+        <v>15.31216325251463</v>
       </c>
       <c r="G39">
-        <v>1898.520747998873</v>
+        <v>3393.7353807877498</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1956,22 +1956,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>2611.4766178867508</v>
+        <v>1370.1817426209591</v>
       </c>
       <c r="C40" s="3">
-        <v>576.39488061312943</v>
+        <v>218.05916636377501</v>
       </c>
       <c r="D40" s="3">
-        <v>108.48332899196591</v>
+        <v>29.201195969286822</v>
       </c>
       <c r="E40" s="3">
-        <v>47.163835567518682</v>
+        <v>14.703249658979191</v>
       </c>
       <c r="F40" s="3">
-        <v>29.013885582236298</v>
+        <v>15.343224127233579</v>
       </c>
       <c r="G40">
-        <v>3372.5325486416009</v>
+        <v>1647.4885787402341</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1993,23 +1993,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>320.56798426591018</v>
-      </c>
-      <c r="C41" s="4">
-        <v>135.19543134828299</v>
-      </c>
-      <c r="D41" s="4">
-        <v>10.53757897575395</v>
-      </c>
-      <c r="E41" s="4">
-        <v>11.893860774628919</v>
-      </c>
-      <c r="F41" s="4">
-        <v>30.052347776706561</v>
+      <c r="B41" s="3">
+        <v>1044.1766026471571</v>
+      </c>
+      <c r="C41" s="3">
+        <v>226.44958208961879</v>
+      </c>
+      <c r="D41" s="3">
+        <v>25.172939745556189</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15.55145941404847</v>
+      </c>
+      <c r="F41" s="3">
+        <v>16.613789895773191</v>
       </c>
       <c r="G41">
-        <v>508.24720314128268</v>
+        <v>1327.964373792154</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>7</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2032,22 +2032,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>230.53107728285019</v>
+        <v>1520.9175960978489</v>
       </c>
       <c r="C42" s="3">
-        <v>52.045062858625478</v>
+        <v>272.8235838463475</v>
       </c>
       <c r="D42" s="3">
-        <v>11.106231766277631</v>
+        <v>63.305818741960891</v>
       </c>
       <c r="E42" s="3">
-        <v>22.579312418156551</v>
+        <v>22.729075444948322</v>
       </c>
       <c r="F42" s="3">
-        <v>37.290198446802243</v>
+        <v>18.744673867766771</v>
       </c>
       <c r="G42">
-        <v>353.55188277271208</v>
+        <v>1898.520747998873</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2070,22 +2070,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>10032.87907971061</v>
+        <v>2611.4766178867508</v>
       </c>
       <c r="C43" s="3">
-        <v>1037.650550640328</v>
+        <v>576.39488061312943</v>
       </c>
       <c r="D43" s="3">
-        <v>74.883974075457175</v>
+        <v>108.48332899196591</v>
       </c>
       <c r="E43" s="3">
-        <v>20.432653814988761</v>
+        <v>47.163835567518682</v>
       </c>
       <c r="F43" s="3">
-        <v>37.323983197862859</v>
+        <v>29.013885582236298</v>
       </c>
       <c r="G43">
-        <v>11203.17024143924</v>
+        <v>3372.5325486416009</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2107,23 +2107,23 @@
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="4">
-        <v>95.62299966160478</v>
-      </c>
-      <c r="C44" s="4">
-        <v>87.31383103725139</v>
-      </c>
-      <c r="D44" s="4">
-        <v>8.4369804546763589</v>
-      </c>
-      <c r="E44" s="4">
-        <v>22.789455019734529</v>
-      </c>
-      <c r="F44" s="4">
-        <v>54.926623926138788</v>
+      <c r="B44" s="3">
+        <v>230.53107728285019</v>
+      </c>
+      <c r="C44" s="3">
+        <v>52.045062858625478</v>
+      </c>
+      <c r="D44" s="3">
+        <v>11.106231766277631</v>
+      </c>
+      <c r="E44" s="3">
+        <v>22.579312418156551</v>
+      </c>
+      <c r="F44" s="3">
+        <v>37.290198446802243</v>
       </c>
       <c r="G44">
-        <v>269.08989009940581</v>
+        <v>353.55188277271208</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>23</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
@@ -2146,22 +2146,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>870.98240894076946</v>
+        <v>10032.87907971061</v>
       </c>
       <c r="C45" s="3">
-        <v>185.23842611053789</v>
+        <v>1037.650550640328</v>
       </c>
       <c r="D45" s="3">
-        <v>38.898970947682088</v>
+        <v>74.883974075457175</v>
       </c>
       <c r="E45" s="3">
-        <v>38.697278328420381</v>
+        <v>20.432653814988761</v>
       </c>
       <c r="F45" s="3">
-        <v>91.228285547679405</v>
+        <v>37.323983197862859</v>
       </c>
       <c r="G45">
-        <v>1225.0453698750889</v>
+        <v>11203.17024143924</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2184,22 +2184,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>1739.2708084962001</v>
+        <v>870.98240894076946</v>
       </c>
       <c r="C46" s="3">
-        <v>616.05704421974622</v>
+        <v>185.23842611053789</v>
       </c>
       <c r="D46" s="3">
-        <v>199.12864855173751</v>
+        <v>38.898970947682088</v>
       </c>
       <c r="E46" s="3">
-        <v>242.54976817488651</v>
+        <v>38.697278328420381</v>
       </c>
       <c r="F46" s="3">
-        <v>204.03759150911981</v>
+        <v>91.228285547679405</v>
       </c>
       <c r="G46">
-        <v>3001.04386095169</v>
+        <v>1225.0453698750889</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2222,22 +2222,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>173.59262043287839</v>
+        <v>1739.2708084962001</v>
       </c>
       <c r="C47" s="3">
-        <v>81.694650957548276</v>
+        <v>616.05704421974622</v>
       </c>
       <c r="D47" s="3">
-        <v>24.744646035595171</v>
+        <v>199.12864855173751</v>
       </c>
       <c r="E47" s="3">
-        <v>73.026197340934587</v>
+        <v>242.54976817488651</v>
       </c>
       <c r="F47" s="3">
-        <v>226.03737827693311</v>
+        <v>204.03759150911981</v>
       </c>
       <c r="G47">
-        <v>579.09549304388952</v>
+        <v>3001.04386095169</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2259,23 +2259,23 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="4">
-        <v>8634.4334241478064</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1559.6966313291471</v>
-      </c>
-      <c r="D48" s="4">
-        <v>595.17730428795926</v>
-      </c>
-      <c r="E48" s="4">
-        <v>387.90335090979988</v>
-      </c>
-      <c r="F48" s="4">
-        <v>288.74623970881782</v>
+      <c r="B48" s="3">
+        <v>173.59262043287839</v>
+      </c>
+      <c r="C48" s="3">
+        <v>81.694650957548276</v>
+      </c>
+      <c r="D48" s="3">
+        <v>24.744646035595171</v>
+      </c>
+      <c r="E48" s="3">
+        <v>73.026197340934587</v>
+      </c>
+      <c r="F48" s="3">
+        <v>226.03737827693311</v>
       </c>
       <c r="G48">
-        <v>11465.956950383519</v>
+        <v>579.09549304388952</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>24</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>13</v>
@@ -2370,8 +2370,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
